--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1303467.986786913</v>
+        <v>1299455.37677292</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283194</v>
+        <v>416855.1052283195</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10899122.4203992</v>
+        <v>10899122.42039919</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>79.76470074482786</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -715,19 +715,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>274.7944255145775</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>74.75769145492383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>133.0538077839175</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94.81275980261485</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>224.7411810187706</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>17.40741367508757</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>69.25160695998125</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>94.81275980261485</v>
+        <v>92.47445699814486</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>103.2354093774329</v>
+        <v>71.67037196991771</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>185.4048731212358</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>33.84547402811447</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000736</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520993</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>45.16086499484882</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>113.5413580759702</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0.4774956074566125</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>126.6035148834797</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3000,16 +3000,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>99.9742741983392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>105.1669704749667</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>55.5207962406042</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>36.00502760852017</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.509627919558</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1698.509627919558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919558</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064744</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080124</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986296</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.0249360836216</v>
+        <v>2392.599276780831</v>
       </c>
       <c r="C4" t="n">
-        <v>142.0249360836216</v>
+        <v>2223.663093852924</v>
       </c>
       <c r="D4" t="n">
-        <v>142.0249360836216</v>
+        <v>2073.546454440589</v>
       </c>
       <c r="E4" t="n">
-        <v>142.0249360836216</v>
+        <v>1925.633360858196</v>
       </c>
       <c r="F4" t="n">
-        <v>142.0249360836216</v>
+        <v>1778.743413360285</v>
       </c>
       <c r="G4" t="n">
-        <v>142.0249360836216</v>
+        <v>1611.040576735004</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0249360836216</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>2909.691694553205</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>2620.588827678848</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>2620.588827678848</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>2620.588827678848</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271517</v>
+        <v>2392.599276780831</v>
       </c>
       <c r="Y4" t="n">
-        <v>142.0249360836216</v>
+        <v>2392.599276780831</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4582,13 +4582,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y5" t="n">
-        <v>2071.975386180639</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="6">
@@ -4637,37 +4637,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>793.5809963705854</v>
+        <v>1015.34761180106</v>
       </c>
       <c r="C7" t="n">
-        <v>624.6448134426785</v>
+        <v>846.4114288731536</v>
       </c>
       <c r="D7" t="n">
-        <v>474.5281740303427</v>
+        <v>696.2947894608178</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>548.3816958784247</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>401.4917483805143</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>233.7889117552333</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="W7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="X7" t="n">
-        <v>1196.022040344355</v>
+        <v>1417.78865577483</v>
       </c>
       <c r="Y7" t="n">
-        <v>975.2294612008251</v>
+        <v>1196.9960766313</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="X8" t="n">
-        <v>1976.204921733553</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1733.185899555685</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1478.501411349798</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5035,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>315.9123021921487</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921487</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898187003</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1501.108204237296</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.108204237296</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5293,37 +5293,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969311</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969311</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378166</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172279</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135318</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237301</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683105</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5715,10 +5715,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.284195611858</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,7 +5770,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>175.9033664000583</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3227.225672628157</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>3058.28948970025</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>2908.172850287915</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>2793.484609807137</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>2646.594662309226</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024106</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4690.833152398593</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>4401.757925742791</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>4147.073437536905</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>3857.656267499944</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>3629.666716601927</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>3408.874137458397</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.435061037252</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2159.833596060193</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1870.758369404391</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.073881198504</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1326.656711161544</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1098.667160263526</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263526</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6457,19 +6457,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6481,31 +6481,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2381.235169913446</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>2978.613657539998</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3606.211621094605</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1057.613315601761</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1977.461080510508</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1688.043910473548</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>1460.05435957553</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>1239.261780432</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>2381.235169913446</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>2978.613657539998</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3445.398957336244</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218162</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,7 +7156,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7165,19 +7165,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.2946447138411</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3584617859342</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>597.2418223735984</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E40" t="n">
-        <v>449.3287287912053</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>449.3287287912053</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>282.1326295060853</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7399,25 +7399,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3445.398957336244</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3445.398957336244</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>984.9192356072716</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>815.9830526793647</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>-2.184459016223422e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>32.89260457060008</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>66.73277020259221</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>114.7699989900979</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891705</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>134.6711151870885</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>32.892604570599</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24414,10 +24414,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>180.548790394188</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>40.64330621514813</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844822997</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>35.12774237125717</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610404</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>112.6104454096922</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>938587.6370487167</v>
+        <v>938587.6370487168</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>938587.6370487167</v>
+        <v>938587.6370487164</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>938587.6370487165</v>
+        <v>938587.6370487167</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>938587.6370487168</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>938587.6370487168</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>938587.6370487167</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>938587.6370487168</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
   </sheetData>
@@ -26322,7 +26322,7 @@
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140035</v>
@@ -26331,25 +26331,25 @@
         <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="J2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="K2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="L2" t="n">
         <v>484287.9598140038</v>
-      </c>
-      <c r="J2" t="n">
-        <v>484287.9598140034</v>
-      </c>
-      <c r="K2" t="n">
-        <v>484287.9598140034</v>
-      </c>
-      <c r="L2" t="n">
-        <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140036</v>
@@ -26368,19 +26368,19 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314486</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314485</v>
+        <v>90354.06702314473</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314474</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26435,7 +26435,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
@@ -26524,46 +26524,46 @@
         <v>-1034407.691393561</v>
       </c>
       <c r="C6" t="n">
-        <v>294337.0543340322</v>
+        <v>294337.0543340319</v>
       </c>
       <c r="D6" t="n">
-        <v>294337.0543340318</v>
+        <v>294337.0543340319</v>
       </c>
       <c r="E6" t="n">
-        <v>46585.9359309477</v>
+        <v>46238.55667659148</v>
       </c>
       <c r="F6" t="n">
-        <v>371998.3977383031</v>
+        <v>371651.0184839459</v>
       </c>
       <c r="G6" t="n">
-        <v>371998.3977383028</v>
+        <v>371651.0184839458</v>
       </c>
       <c r="H6" t="n">
-        <v>371998.3977383028</v>
+        <v>371651.0184839459</v>
       </c>
       <c r="I6" t="n">
-        <v>371998.3977383031</v>
+        <v>371651.0184839459</v>
       </c>
       <c r="J6" t="n">
-        <v>154467.1953410255</v>
+        <v>154119.8160866686</v>
       </c>
       <c r="K6" t="n">
-        <v>371998.3977383028</v>
+        <v>371651.018483946</v>
       </c>
       <c r="L6" t="n">
-        <v>371998.397738303</v>
+        <v>371651.0184839462</v>
       </c>
       <c r="M6" t="n">
-        <v>286943.3698027912</v>
+        <v>286595.9905484344</v>
       </c>
       <c r="N6" t="n">
-        <v>371998.3977383029</v>
+        <v>371651.018483946</v>
       </c>
       <c r="O6" t="n">
-        <v>371998.3977383029</v>
+        <v>371651.0184839459</v>
       </c>
       <c r="P6" t="n">
-        <v>371998.3977383029</v>
+        <v>371651.0184839459</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>274.9183408758551</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>111.4435131414761</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>21.59472895491426</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>86.49514149225166</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>287.9210818608657</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>26.25399094013139</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>129.0265489714816</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>75.50340795433954</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>274.9183408758542</v>
+        <v>277.2566436803241</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,13 +28067,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>182.97642882818</v>
+        <v>214.5414662356952</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28553,7 +28553,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>211.0222436375127</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32080,13 +32080,13 @@
         <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>248.0319961154049</v>
       </c>
       <c r="L15" t="n">
-        <v>616.5397119226061</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071783</v>
@@ -32098,7 +32098,7 @@
         <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,34 +32311,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M18" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,7 +32557,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>570.6116741576916</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>297.1808238847177</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,19 +33022,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868578</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33043,13 +33043,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>574.6535388222615</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33417,10 +33417,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33496,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>379.4203056753702</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>73.18080466315369</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>110.1905571410459</v>
       </c>
       <c r="L15" t="n">
-        <v>477.9853321427319</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
         <v>633.937336923845</v>
@@ -35746,7 +35746,7 @@
         <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M18" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>432.0572943778175</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>159.3393849103587</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648395</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36691,13 +36691,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>432.057294377817</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,10 +37065,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>237.2862717533519</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1299455.37677292</v>
+        <v>1301215.907075705</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283195</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>62.92930610001664</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -715,19 +715,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.7944255145775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>143.3002560168319</v>
       </c>
       <c r="T4" t="n">
-        <v>133.0538077839175</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>315.3882082434901</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>224.7411810187706</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>69.25160695998125</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814486</v>
+        <v>92.47445699814396</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991771</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>104.6606186128871</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187844</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>33.84547402811447</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>5.421623586788372</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>83.06560892428168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.29306638367395</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D34" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.8253826161913385</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3511,13 +3511,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1664.678443125553</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1295.715926185141</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1295.715926185141</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4330,25 +4330,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052369</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>3009.337405520489</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2051.278283189674</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2392.599276780831</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C4" t="n">
-        <v>2223.663093852924</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D4" t="n">
-        <v>2073.546454440589</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>1925.633360858196</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>1778.743413360285</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>1611.040576735004</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193526</v>
+        <v>1782.546814738158</v>
       </c>
       <c r="T4" t="n">
-        <v>2909.691694553205</v>
+        <v>1560.780199307684</v>
       </c>
       <c r="U4" t="n">
-        <v>2620.588827678848</v>
+        <v>1271.677332433327</v>
       </c>
       <c r="V4" t="n">
-        <v>2620.588827678848</v>
+        <v>1271.677332433327</v>
       </c>
       <c r="W4" t="n">
-        <v>2620.588827678848</v>
+        <v>982.2601623963667</v>
       </c>
       <c r="X4" t="n">
-        <v>2392.599276780831</v>
+        <v>754.2706114983494</v>
       </c>
       <c r="Y4" t="n">
-        <v>2392.599276780831</v>
+        <v>533.4780323548192</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1908.990616856006</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1550.724918249256</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2782.326111562134</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2782.326111562134</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2782.326111562134</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2782.326111562134</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y5" t="n">
-        <v>2392.186779586323</v>
+        <v>2277.953133796418</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
@@ -4649,25 +4649,25 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1015.34761180106</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C7" t="n">
-        <v>846.4114288731536</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D7" t="n">
-        <v>696.2947894608178</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>548.3816958784247</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>401.4917483805143</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>233.7889117552333</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4728,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672848</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V7" t="n">
-        <v>1645.778206672848</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W7" t="n">
-        <v>1645.778206672848</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X7" t="n">
-        <v>1417.78865577483</v>
+        <v>935.9190763285891</v>
       </c>
       <c r="Y7" t="n">
-        <v>1196.9960766313</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="8">
@@ -4801,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,31 +4819,31 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
         <v>3121.906610713899</v>
@@ -4874,13 +4874,13 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,10 +4889,10 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,22 +5038,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>315.9123021921487</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921487</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187003</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>516.389687887188</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797186</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452619</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452619</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718135</v>
+        <v>1501.840175011101</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
         <v>2129.438138565707</v>
@@ -5418,31 +5418,31 @@
         <v>564.5188827892232</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,22 +5588,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
         <v>1577.52840832642</v>
@@ -5652,34 +5652,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5749,28 +5749,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5828,19 +5828,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
         <v>1577.52840832642</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F25" t="n">
-        <v>265.0731740618515</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>97.87707477673149</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6223,19 +6223,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6262,10 +6262,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,34 +6952,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>94.65038286230657</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>94.65038286230657</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-2.184459016223422e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>32.89260457060008</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856555</v>
@@ -23466,10 +23466,10 @@
         <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>114.7699989900979</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856555</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>63.36835372228749</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>136.2749052347519</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.1408962628952</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D34" t="n">
-        <v>46.45968844823102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>80.44045370237419</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>145.6085800303783</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>938587.6370487168</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>938587.6370487164</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>938587.6370487167</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>938587.6370487165</v>
+        <v>938587.6370487167</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>938587.6370487165</v>
+        <v>938587.6370487167</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>938587.6370487167</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
     <row r="15">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185699</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.06191857</v>
-      </c>
-      <c r="C2" t="n">
-        <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
@@ -26334,7 +26334,7 @@
         <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140037</v>
@@ -26343,19 +26343,19 @@
         <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
     </row>
     <row r="3">
@@ -26368,22 +26368,22 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90354.06702314474</v>
+      </c>
+      <c r="C4" t="n">
         <v>90354.06702314477</v>
       </c>
-      <c r="C4" t="n">
-        <v>90354.06702314473</v>
-      </c>
       <c r="D4" t="n">
-        <v>90354.06702314474</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26524,46 +26524,46 @@
         <v>-1034407.691393561</v>
       </c>
       <c r="C6" t="n">
-        <v>294337.0543340319</v>
+        <v>294337.054334032</v>
       </c>
       <c r="D6" t="n">
         <v>294337.0543340319</v>
       </c>
       <c r="E6" t="n">
-        <v>46238.55667659148</v>
+        <v>46551.19800551243</v>
       </c>
       <c r="F6" t="n">
-        <v>371651.0184839459</v>
+        <v>371963.6598128671</v>
       </c>
       <c r="G6" t="n">
-        <v>371651.0184839458</v>
+        <v>371963.6598128672</v>
       </c>
       <c r="H6" t="n">
-        <v>371651.0184839459</v>
+        <v>371963.6598128669</v>
       </c>
       <c r="I6" t="n">
-        <v>371651.0184839459</v>
+        <v>371963.6598128671</v>
       </c>
       <c r="J6" t="n">
-        <v>154119.8160866686</v>
+        <v>154432.4574155898</v>
       </c>
       <c r="K6" t="n">
-        <v>371651.018483946</v>
+        <v>371963.6598128672</v>
       </c>
       <c r="L6" t="n">
-        <v>371651.0184839462</v>
+        <v>371963.6598128672</v>
       </c>
       <c r="M6" t="n">
-        <v>286595.9905484344</v>
+        <v>286908.6318773555</v>
       </c>
       <c r="N6" t="n">
-        <v>371651.018483946</v>
+        <v>371963.6598128671</v>
       </c>
       <c r="O6" t="n">
-        <v>371651.0184839459</v>
+        <v>371963.6598128672</v>
       </c>
       <c r="P6" t="n">
-        <v>371651.0184839459</v>
+        <v>371963.6598128673</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>319.0010639722452</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>111.4435131414761</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>46.46876931461003</v>
       </c>
       <c r="T4" t="n">
-        <v>86.49514149225166</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>66.54216182877167</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>26.25399094013139</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>75.50340795433954</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>277.2566436803241</v>
+        <v>277.2566436803251</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356952</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>181.8623797237039</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31843,13 +31843,13 @@
         <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>211.0222436375127</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>446.0127311990647</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071783</v>
@@ -31858,13 +31858,13 @@
         <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742437</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>248.0319961154049</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>575.5951359912051</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214697</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,28 +32311,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>246.9596973201446</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>436.0678650906015</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33420,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>73.18080466315369</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>303.8786972770464</v>
       </c>
       <c r="N12" t="n">
         <v>633.937336923845</v>
@@ -35506,13 +35506,13 @@
         <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>110.1905571410459</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>433.4611020691868</v>
       </c>
       <c r="N15" t="n">
         <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071394</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>108.4053175402704</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>108.4053175402704</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>302.0934576762713</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
